--- a/文档/测试工作相关/IT端到端测试相关/测试内容相关/20191219/CRM中SD-WAN国内组网（679）正装流程开发需求（196038100）/测试报告_CRM中SD-WAN国内组网（679）正装流程开发需求（196038100）.xlsx
+++ b/文档/测试工作相关/IT端到端测试相关/测试内容相关/20191219/CRM中SD-WAN国内组网（679）正装流程开发需求（196038100）/测试报告_CRM中SD-WAN国内组网（679）正装流程开发需求（196038100）.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>序号</t>
   </si>
@@ -104,18 +104,6 @@
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新CRM政企系统环境中，在受理SD-WAN产品时，发现需要订购的子产品：“SD-WAN国内组网SLA服务”、“SD-WAN国内组网四层防火墙”、“SD-WAN国内组网入侵检测和防御”、“SD-WAN国内组网安全审计”、“SD-WAN国内组网WEB应用防护”、“SD-WAN国内组网Underlay电路信息”，均未出现，无法受理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定位中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -200,11 +188,73 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2-30261123955</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-30261387506</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-30261405580</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.CRM
+2.综资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决
+已解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老CRM系统在新装订单提交后未能返回设备编号和97流水号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张轶晟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 新CRM政企系统环境中，在受理SD-WAN产品时，需要订购的子产品：“SD-WAN国内组网SLA服务”、“SD-WAN国内组网四层防火墙”、“SD-WAN国内组网入侵检测和防御”、“SD-WAN国内组网安全审计”、“SD-WAN国内组网WEB应用防护”、“SD-WAN国内组网Underlay电路信息”，均未出现，无法受理
+2. 在新CRM政企系统环境中受理SD-WAN产品订单，结算后提交，订单直接在CRM环境中竣工，且未发送到IBP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.已解决
+2.未解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.CRM
+2.CRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 老CRM系统在新装订单提交后未能返回设备编号，故在新装订单完工后无法对该完工的资产受理拆机业务订单
+2. 从老CRM系统受理拆机订单提交到IBP后，综资因订单审核失败未能自动提交配置订单</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,6 +458,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,12 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,7 +793,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -797,10 +853,19 @@
       <c r="E2" s="22">
         <v>4</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="12"/>
+      <c r="F2" s="22">
+        <v>2</v>
+      </c>
+      <c r="G2" s="23">
+        <f>F2/E2</f>
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
@@ -816,7 +881,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -824,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -886,15 +951,15 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="26">
         <v>43819</v>
@@ -903,32 +968,32 @@
         <v>17</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="378" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F3" s="26">
         <v>43819</v>
@@ -936,26 +1001,33 @@
       <c r="G3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
+      <c r="H3" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="27"/>
-      <c r="C4" s="31"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="F4" s="26">
         <v>43819</v>
@@ -964,19 +1036,19 @@
         <v>17</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="189" x14ac:dyDescent="0.15">
@@ -984,12 +1056,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="27"/>
-      <c r="C5" s="32"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="26">
         <v>43819</v>
@@ -997,11 +1069,21 @@
       <c r="G5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+      <c r="H5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="I1"/>
@@ -1019,7 +1101,7 @@
   <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
